--- a/xlsx/政策_政策_政治學_intext.xlsx
+++ b/xlsx/政策_政策_政治學_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>政治學</t>
   </si>
@@ -1563,576 +1563,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://am.wikipedia.org/wiki/%E1%8B%A8%E1%8D%96%E1%88%88%E1%89%B2%E1%8A%AB_%E1%8C%A5%E1%8A%93%E1%89%B5</t>
-  </si>
-  <si>
-    <t>የፖለቲካ ጥናት – 阿姆哈拉语</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B9%D9%84%D9%88%D9%85_%D8%B3%D9%8A%D8%A7%D8%B3%D9%8A%D8%A9</t>
-  </si>
-  <si>
-    <t>علوم سياسية – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://arz.wikipedia.org/wiki/%D8%B9%D9%84%D9%88%D9%85_%D8%B3%D9%8A%D8%A7%D8%B3%D9%8A%D9%87</t>
-  </si>
-  <si>
-    <t>علوم سياسيه – Egyptian Arabic</t>
-  </si>
-  <si>
-    <t>https://ast.wikipedia.org/wiki/Ciencies_Pol%C3%ADtiques</t>
-  </si>
-  <si>
-    <t>Ciencies Polítiques – 阿斯图里亚斯语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/Siyasi_elm</t>
-  </si>
-  <si>
-    <t>Siyasi elm – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%9F%D0%B0%D0%BB%D1%96%D1%82%D0%B0%D0%BB%D0%BE%D0%B3%D1%96%D1%8F</t>
-  </si>
-  <si>
-    <t>Паліталогія – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://be-x-old.wikipedia.org/wiki/%D0%9F%D0%B0%D0%BB%D1%96%D1%82%D0%B0%D0%BB%D1%91%D0%B3%D1%96%D1%8F</t>
-  </si>
-  <si>
-    <t>Паліталёгія – Belarusian (Taraškievica orthography)</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Политология – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://bh.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF_%E0%A4%AC%E0%A4%BF%E0%A4%9C%E0%A5%8D%E0%A4%9E%E0%A4%BE%E0%A4%A8</t>
-  </si>
-  <si>
-    <t>राजनीति बिज्ञान – Bhojpuri</t>
-  </si>
-  <si>
-    <t>https://bn.wikipedia.org/wiki/%E0%A6%B0%E0%A6%BE%E0%A6%B7%E0%A7%8D%E0%A6%9F%E0%A7%8D%E0%A6%B0%E0%A6%AC%E0%A6%BF%E0%A6%9C%E0%A7%8D%E0%A6%9E%E0%A6%BE%E0%A6%A8</t>
-  </si>
-  <si>
-    <t>রাষ্ট্রবিজ্ঞান – 孟加拉语</t>
-  </si>
-  <si>
-    <t>https://bs.wikipedia.org/wiki/Politi%C4%8Dke_nauke</t>
-  </si>
-  <si>
-    <t>Političke nauke – 波斯尼亚语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Ci%C3%A8ncies_pol%C3%ADtiques</t>
-  </si>
-  <si>
-    <t>Ciències polítiques – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://ceb.wikipedia.org/wiki/Siyensiya_sa_politika</t>
-  </si>
-  <si>
-    <t>Siyensiya sa politika – 宿务语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Politologie</t>
-  </si>
-  <si>
-    <t>Politologie – 捷克语</t>
-  </si>
-  <si>
-    <t>https://csb.wikipedia.org/wiki/P%C3%B2litologij%C3%B4</t>
-  </si>
-  <si>
-    <t>Pòlitologijô – 卡舒比语</t>
-  </si>
-  <si>
-    <t>https://cy.wikipedia.org/wiki/Gwyddor_gwleidyddiaeth</t>
-  </si>
-  <si>
-    <t>Gwyddor gwleidyddiaeth – 威尔士语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Statskundskab</t>
-  </si>
-  <si>
-    <t>Statskundskab – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Politikwissenschaft</t>
-  </si>
-  <si>
-    <t>Politikwissenschaft – 德语</t>
-  </si>
-  <si>
-    <t>https://diq.wikipedia.org/wiki/Politolociye</t>
-  </si>
-  <si>
-    <t>Politolociye – Zazaki</t>
-  </si>
-  <si>
-    <t>https://el.wikipedia.org/wiki/%CE%A0%CE%BF%CE%BB%CE%B9%CF%84%CE%B9%CE%BA%CE%AE_%CE%B5%CF%80%CE%B9%CF%83%CF%84%CE%AE%CE%BC%CE%B7</t>
-  </si>
-  <si>
-    <t>Πολιτική επιστήμη – 希腊语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_science</t>
-  </si>
-  <si>
-    <t>Political science – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Politika_scienco</t>
-  </si>
-  <si>
-    <t>Politika scienco – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Ciencia_pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Ciencia política – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/Politoloogia</t>
-  </si>
-  <si>
-    <t>Politoloogia – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Politika_zientzia</t>
-  </si>
-  <si>
-    <t>Politika zientzia – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%B9%D9%84%D9%88%D9%85_%D8%B3%DB%8C%D8%A7%D8%B3%DB%8C</t>
-  </si>
-  <si>
-    <t>علوم سیاسی – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Politiikan_tutkimus</t>
-  </si>
-  <si>
-    <t>Politiikan tutkimus – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fo.wikipedia.org/wiki/Stj%C3%B3rnm%C3%A1lafr%C3%B8%C3%B0i</t>
-  </si>
-  <si>
-    <t>Stjórnmálafrøði – 法罗语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Science_politique</t>
-  </si>
-  <si>
-    <t>Science politique – 法语</t>
-  </si>
-  <si>
-    <t>https://fur.wikipedia.org/wiki/Siencis_politichis</t>
-  </si>
-  <si>
-    <t>Siencis politichis – 弗留利语</t>
-  </si>
-  <si>
-    <t>https://fy.wikipedia.org/wiki/Politikology</t>
-  </si>
-  <si>
-    <t>Politikology – 西弗里西亚语</t>
-  </si>
-  <si>
-    <t>https://ga.wikipedia.org/wiki/Eola%C3%ADocht_pholaiti%C3%BAil</t>
-  </si>
-  <si>
-    <t>Eolaíocht pholaitiúil – 爱尔兰语</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/Ciencia_pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Ciencia política – 加利西亚语</t>
-  </si>
-  <si>
-    <t>https://gv.wikipedia.org/wiki/Oaylleeaght_pholitickagh</t>
-  </si>
-  <si>
-    <t>Oaylleeaght pholitickagh – 马恩语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%9E%D7%93%D7%A2_%D7%94%D7%9E%D7%93%D7%99%D7%A0%D7%94</t>
-  </si>
-  <si>
-    <t>מדע המדינה – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF_%E0%A4%B5%E0%A4%BF%E0%A4%9C%E0%A5%8D%E0%A4%9E%E0%A4%BE%E0%A4%A8</t>
-  </si>
-  <si>
-    <t>राजनीति विज्ञान – 印地语</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Politi%C4%8Dke_znanosti</t>
-  </si>
-  <si>
-    <t>Političke znanosti – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/Politikatudom%C3%A1ny</t>
-  </si>
-  <si>
-    <t>Politikatudomány – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D5%94%D5%A1%D5%B2%D5%A1%D6%84%D5%A1%D5%A3%D5%AB%D5%BF%D5%B8%D6%82%D5%A9%D5%B5%D5%B8%D6%82%D5%B6</t>
-  </si>
-  <si>
-    <t>Քաղաքագիտություն – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Ilmu_politik</t>
-  </si>
-  <si>
-    <t>Ilmu politik – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://ie.wikipedia.org/wiki/Political_scientie</t>
-  </si>
-  <si>
-    <t>Political scientie – 国际文字（E）</t>
-  </si>
-  <si>
-    <t>https://is.wikipedia.org/wiki/Stj%C3%B3rnm%C3%A1lafr%C3%A6%C3%B0i</t>
-  </si>
-  <si>
-    <t>Stjórnmálafræði – 冰岛语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Scienza_politica</t>
-  </si>
-  <si>
-    <t>Scienza politica – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治学 – 日语</t>
-  </si>
-  <si>
-    <t>https://jam.wikipedia.org/wiki/Palitikal_sayans</t>
-  </si>
-  <si>
-    <t>Palitikal sayans – Jamaican Creole English</t>
-  </si>
-  <si>
-    <t>https://jv.wikipedia.org/wiki/%C3%88lmu_pulitik</t>
-  </si>
-  <si>
-    <t>Èlmu pulitik – 爪哇语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98_%E1%83%9B%E1%83%94%E1%83%AA%E1%83%9C%E1%83%98%E1%83%94%E1%83%A0%E1%83%94%E1%83%91%E1%83%90</t>
-  </si>
-  <si>
-    <t>პოლიტიკური მეცნიერება – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kbp.wikipedia.org/wiki/Politiki_t%C9%A9l%C9%A9y%C9%9B_l%C9%A9ma%C9%A3za</t>
-  </si>
-  <si>
-    <t>Politiki tɩlɩyɛ lɩmaɣza – Kabiye</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%A1%D0%B0%D1%8F%D1%81%D0%B0%D1%82%D1%82%D0%B0%D0%BD%D1%83</t>
-  </si>
-  <si>
-    <t>Саясаттану – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%A0%95%EC%B9%98%ED%95%99</t>
-  </si>
-  <si>
-    <t>정치학 – 韩语</t>
-  </si>
-  <si>
-    <t>https://ku.wikipedia.org/wiki/Siyasetnas%C3%AE</t>
-  </si>
-  <si>
-    <t>Siyasetnasî – 库尔德语</t>
-  </si>
-  <si>
-    <t>https://ky.wikipedia.org/wiki/%D0%A1%D0%B0%D1%8F%D1%81%D0%B8%D0%B9_%D0%B8%D0%BB%D0%B8%D0%BC%D0%B4%D0%B5%D1%80</t>
-  </si>
-  <si>
-    <t>Саясий илимдер – 柯尔克孜语</t>
-  </si>
-  <si>
-    <t>https://li.wikipedia.org/wiki/Politicologie</t>
-  </si>
-  <si>
-    <t>Politicologie – 林堡语</t>
-  </si>
-  <si>
-    <t>https://lij.wikipedia.org/wiki/Sciensa_politica</t>
-  </si>
-  <si>
-    <t>Sciensa politica – Ligurian</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Politologija</t>
-  </si>
-  <si>
-    <t>Politologija – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Politolo%C4%A3ija</t>
-  </si>
-  <si>
-    <t>Politoloģija – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D1%87%D0%BA%D0%B8_%D0%BD%D0%B0%D1%83%D0%BA%D0%B8</t>
-  </si>
-  <si>
-    <t>Политички науки – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://ml.wikipedia.org/wiki/%E0%B4%B0%E0%B4%BE%E0%B4%B7%E0%B5%8D%E0%B4%9F%E0%B5%8D%E0%B4%B0%E0%B4%A4%E0%B4%A8%E0%B5%8D%E0%B4%A4%E0%B5%8D%E0%B4%B0%E0%B4%82</t>
-  </si>
-  <si>
-    <t>രാഷ്ട്രതന്ത്രം – 马拉雅拉姆语</t>
-  </si>
-  <si>
-    <t>https://mr.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A5%8D%E0%A4%AF%E0%A4%B6%E0%A4%BE%E0%A4%B8%E0%A5%8D%E0%A4%A4%E0%A5%8D%E0%A4%B0</t>
-  </si>
-  <si>
-    <t>राज्यशास्त्र – 马拉地语</t>
-  </si>
-  <si>
-    <t>https://ms.wikipedia.org/wiki/Sains_politik</t>
-  </si>
-  <si>
-    <t>Sains politik – 马来语</t>
-  </si>
-  <si>
-    <t>https://mwl.wikipedia.org/wiki/Ci%C3%A9ncia_pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Ciéncia política – 米兰德斯语</t>
-  </si>
-  <si>
-    <t>https://my.wikipedia.org/wiki/%E1%80%94%E1%80%AD%E1%80%AF%E1%80%84%E1%80%BA%E1%80%84%E1%80%B6%E1%80%9B%E1%80%B1%E1%80%B8%E1%80%9E%E1%80%AD%E1%80%95%E1%80%B9%E1%80%95%E1%80%B6</t>
-  </si>
-  <si>
-    <t>နိုင်ငံရေးသိပ္ပံ – 缅甸语</t>
-  </si>
-  <si>
-    <t>https://ne.wikipedia.org/wiki/%E0%A4%B0%E0%A4%BE%E0%A4%9C%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF_%E0%A4%B5%E0%A4%BF%E0%A4%9C%E0%A5%8D%E0%A4%9E%E0%A4%BE%E0%A4%A8</t>
-  </si>
-  <si>
-    <t>राजनीति विज्ञान – 尼泊尔语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Politicologie</t>
-  </si>
-  <si>
-    <t>Politicologie – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/Statsvitskap</t>
-  </si>
-  <si>
-    <t>Statsvitskap – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Statsvitenskap</t>
-  </si>
-  <si>
-    <t>Statsvitenskap – 挪威语</t>
-  </si>
-  <si>
-    <t>https://nov.wikipedia.org/wiki/Politikal_sientie</t>
-  </si>
-  <si>
-    <t>Politikal sientie – Novial</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Politologia</t>
-  </si>
-  <si>
-    <t>Politologia – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Ci%C3%AAncia_pol%C3%ADtica</t>
-  </si>
-  <si>
-    <t>Ciência política – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Politologie</t>
-  </si>
-  <si>
-    <t>Politologie – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Политология – 俄语</t>
-  </si>
-  <si>
-    <t>https://rue.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D1%96%D1%82%D0%BE%D0%BB%D0%BE%D2%91%D1%96%D1%8F</t>
-  </si>
-  <si>
-    <t>Політолоґія – Rusyn</t>
-  </si>
-  <si>
-    <t>https://sc.wikipedia.org/wiki/Isci%C3%A8ntzia_Pol%C3%ACtica</t>
-  </si>
-  <si>
-    <t>Iscièntzia Polìtica – 萨丁语</t>
-  </si>
-  <si>
-    <t>https://sco.wikipedia.org/wiki/Poleetical_science</t>
-  </si>
-  <si>
-    <t>Poleetical science – 苏格兰语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Politologija</t>
-  </si>
-  <si>
-    <t>Politologija – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://si.wikipedia.org/wiki/%E0%B6%AF%E0%B7%9A%E0%B7%81%E0%B6%B4%E0%B7%8F%E0%B6%BD%E0%B6%B1_%E0%B7%80%E0%B7%92%E0%B6%AF%E0%B7%8A%E2%80%8D%E0%B6%BA%E0%B7%8F%E0%B7%80</t>
-  </si>
-  <si>
-    <t>දේශපාලන විද්‍යාව – 僧伽罗语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/Political_science</t>
-  </si>
-  <si>
-    <t>Political science – Simple English</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Politol%C3%B3gia</t>
-  </si>
-  <si>
-    <t>Politológia – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Politi%C4%8Dne_znanosti</t>
-  </si>
-  <si>
-    <t>Politične znanosti – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sq.wikipedia.org/wiki/Shkenca_politike</t>
-  </si>
-  <si>
-    <t>Shkenca politike – 阿尔巴尼亚语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D1%87%D0%BA%D0%B5_%D0%BD%D0%B0%D1%83%D0%BA%D0%B5</t>
-  </si>
-  <si>
-    <t>Политичке науке – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Statsvetenskap</t>
-  </si>
-  <si>
-    <t>Statsvetenskap – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%85%E0%AE%B0%E0%AE%9A%E0%AE%B1%E0%AE%BF%E0%AE%B5%E0%AE%BF%E0%AE%AF%E0%AE%B2%E0%AF%8D</t>
-  </si>
-  <si>
-    <t>அரசறிவியல் – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://te.wikipedia.org/wiki/%E0%B0%B0%E0%B0%BE%E0%B0%9C%E0%B0%A8%E0%B1%80%E0%B0%A4%E0%B0%BF_%E0%B0%B6%E0%B0%BE%E0%B0%B8%E0%B1%8D%E0%B0%A4%E0%B1%8D%E0%B0%B0%E0%B0%AE%E0%B1%81</t>
-  </si>
-  <si>
-    <t>రాజనీతి శాస్త్రము – 泰卢固语</t>
-  </si>
-  <si>
-    <t>https://tg.wikipedia.org/wiki/%D0%A1%D0%B8%D1%91%D1%81%D0%B0%D1%82%D1%88%D0%B8%D0%BD%D0%BE%D1%81%D3%A3</t>
-  </si>
-  <si>
-    <t>Сиёсатшиносӣ – 塔吉克语</t>
-  </si>
-  <si>
-    <t>https://th.wikipedia.org/wiki/%E0%B8%A3%E0%B8%B1%E0%B8%90%E0%B8%A8%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%A3%E0%B9%8C</t>
-  </si>
-  <si>
-    <t>รัฐศาสตร์ – 泰语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/Agham_pampolitika</t>
-  </si>
-  <si>
-    <t>Agham pampolitika – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Siyaset_bilimi</t>
-  </si>
-  <si>
-    <t>Siyaset bilimi – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%9F%D0%BE%D0%BB%D1%96%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D1%96%D1%8F</t>
-  </si>
-  <si>
-    <t>Політологія – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%DB%8C%D8%A7%D8%AA</t>
-  </si>
-  <si>
-    <t>سیاسیات – 乌尔都语</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Ch%C3%ADnh_tr%E1%BB%8B_h%E1%BB%8Dc</t>
-  </si>
-  <si>
-    <t>Chính trị học – 越南语</t>
-  </si>
-  <si>
-    <t>https://war.wikipedia.org/wiki/Syensya_politika</t>
-  </si>
-  <si>
-    <t>Syensya politika – 瓦瑞语</t>
-  </si>
-  <si>
-    <t>https://wuu.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治學 – 吴语</t>
-  </si>
-  <si>
-    <t>https://za.wikipedia.org/wiki/Cwngciyoz</t>
-  </si>
-  <si>
-    <t>Cwngciyoz – 壮语</t>
-  </si>
-  <si>
-    <t>https://zh-yue.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治學 – Cantonese</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +1911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I357"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10084,2761 +9514,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>0</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1</v>
-      </c>
-      <c r="D263" t="n">
-        <v>262</v>
-      </c>
-      <c r="E263" t="s">
-        <v>516</v>
-      </c>
-      <c r="F263" t="s">
-        <v>517</v>
-      </c>
-      <c r="G263" t="n">
-        <v>1</v>
-      </c>
-      <c r="H263" t="s">
-        <v>4</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>0</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1</v>
-      </c>
-      <c r="D264" t="n">
-        <v>263</v>
-      </c>
-      <c r="E264" t="s">
-        <v>518</v>
-      </c>
-      <c r="F264" t="s">
-        <v>519</v>
-      </c>
-      <c r="G264" t="n">
-        <v>1</v>
-      </c>
-      <c r="H264" t="s">
-        <v>4</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>0</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1</v>
-      </c>
-      <c r="D265" t="n">
-        <v>264</v>
-      </c>
-      <c r="E265" t="s">
-        <v>520</v>
-      </c>
-      <c r="F265" t="s">
-        <v>521</v>
-      </c>
-      <c r="G265" t="n">
-        <v>1</v>
-      </c>
-      <c r="H265" t="s">
-        <v>4</v>
-      </c>
-      <c r="I265" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1</v>
-      </c>
-      <c r="D266" t="n">
-        <v>265</v>
-      </c>
-      <c r="E266" t="s">
-        <v>522</v>
-      </c>
-      <c r="F266" t="s">
-        <v>523</v>
-      </c>
-      <c r="G266" t="n">
-        <v>1</v>
-      </c>
-      <c r="H266" t="s">
-        <v>4</v>
-      </c>
-      <c r="I266" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>0</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>266</v>
-      </c>
-      <c r="E267" t="s">
-        <v>524</v>
-      </c>
-      <c r="F267" t="s">
-        <v>525</v>
-      </c>
-      <c r="G267" t="n">
-        <v>1</v>
-      </c>
-      <c r="H267" t="s">
-        <v>4</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1</v>
-      </c>
-      <c r="D268" t="n">
-        <v>267</v>
-      </c>
-      <c r="E268" t="s">
-        <v>526</v>
-      </c>
-      <c r="F268" t="s">
-        <v>527</v>
-      </c>
-      <c r="G268" t="n">
-        <v>2</v>
-      </c>
-      <c r="H268" t="s">
-        <v>4</v>
-      </c>
-      <c r="I268" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>0</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1</v>
-      </c>
-      <c r="D269" t="n">
-        <v>268</v>
-      </c>
-      <c r="E269" t="s">
-        <v>528</v>
-      </c>
-      <c r="F269" t="s">
-        <v>529</v>
-      </c>
-      <c r="G269" t="n">
-        <v>1</v>
-      </c>
-      <c r="H269" t="s">
-        <v>4</v>
-      </c>
-      <c r="I269" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>0</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1</v>
-      </c>
-      <c r="D270" t="n">
-        <v>269</v>
-      </c>
-      <c r="E270" t="s">
-        <v>530</v>
-      </c>
-      <c r="F270" t="s">
-        <v>531</v>
-      </c>
-      <c r="G270" t="n">
-        <v>1</v>
-      </c>
-      <c r="H270" t="s">
-        <v>4</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1</v>
-      </c>
-      <c r="D271" t="n">
-        <v>270</v>
-      </c>
-      <c r="E271" t="s">
-        <v>532</v>
-      </c>
-      <c r="F271" t="s">
-        <v>533</v>
-      </c>
-      <c r="G271" t="n">
-        <v>1</v>
-      </c>
-      <c r="H271" t="s">
-        <v>4</v>
-      </c>
-      <c r="I271" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="s">
-        <v>0</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1</v>
-      </c>
-      <c r="D272" t="n">
-        <v>271</v>
-      </c>
-      <c r="E272" t="s">
-        <v>534</v>
-      </c>
-      <c r="F272" t="s">
-        <v>535</v>
-      </c>
-      <c r="G272" t="n">
-        <v>1</v>
-      </c>
-      <c r="H272" t="s">
-        <v>4</v>
-      </c>
-      <c r="I272" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="s">
-        <v>0</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1</v>
-      </c>
-      <c r="D273" t="n">
-        <v>272</v>
-      </c>
-      <c r="E273" t="s">
-        <v>536</v>
-      </c>
-      <c r="F273" t="s">
-        <v>537</v>
-      </c>
-      <c r="G273" t="n">
-        <v>1</v>
-      </c>
-      <c r="H273" t="s">
-        <v>4</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="s">
-        <v>0</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1</v>
-      </c>
-      <c r="D274" t="n">
-        <v>273</v>
-      </c>
-      <c r="E274" t="s">
-        <v>538</v>
-      </c>
-      <c r="F274" t="s">
-        <v>539</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1</v>
-      </c>
-      <c r="H274" t="s">
-        <v>4</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="s">
-        <v>0</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1</v>
-      </c>
-      <c r="D275" t="n">
-        <v>274</v>
-      </c>
-      <c r="E275" t="s">
-        <v>540</v>
-      </c>
-      <c r="F275" t="s">
-        <v>541</v>
-      </c>
-      <c r="G275" t="n">
-        <v>1</v>
-      </c>
-      <c r="H275" t="s">
-        <v>4</v>
-      </c>
-      <c r="I275" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="s">
-        <v>0</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1</v>
-      </c>
-      <c r="D276" t="n">
-        <v>275</v>
-      </c>
-      <c r="E276" t="s">
-        <v>542</v>
-      </c>
-      <c r="F276" t="s">
-        <v>543</v>
-      </c>
-      <c r="G276" t="n">
-        <v>1</v>
-      </c>
-      <c r="H276" t="s">
-        <v>4</v>
-      </c>
-      <c r="I276" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="s">
-        <v>0</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" t="n">
-        <v>276</v>
-      </c>
-      <c r="E277" t="s">
-        <v>544</v>
-      </c>
-      <c r="F277" t="s">
-        <v>545</v>
-      </c>
-      <c r="G277" t="n">
-        <v>1</v>
-      </c>
-      <c r="H277" t="s">
-        <v>4</v>
-      </c>
-      <c r="I277" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1</v>
-      </c>
-      <c r="D278" t="n">
-        <v>277</v>
-      </c>
-      <c r="E278" t="s">
-        <v>546</v>
-      </c>
-      <c r="F278" t="s">
-        <v>547</v>
-      </c>
-      <c r="G278" t="n">
-        <v>1</v>
-      </c>
-      <c r="H278" t="s">
-        <v>4</v>
-      </c>
-      <c r="I278" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>0</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1</v>
-      </c>
-      <c r="D279" t="n">
-        <v>278</v>
-      </c>
-      <c r="E279" t="s">
-        <v>548</v>
-      </c>
-      <c r="F279" t="s">
-        <v>549</v>
-      </c>
-      <c r="G279" t="n">
-        <v>1</v>
-      </c>
-      <c r="H279" t="s">
-        <v>4</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>0</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1</v>
-      </c>
-      <c r="D280" t="n">
-        <v>279</v>
-      </c>
-      <c r="E280" t="s">
-        <v>550</v>
-      </c>
-      <c r="F280" t="s">
-        <v>551</v>
-      </c>
-      <c r="G280" t="n">
-        <v>1</v>
-      </c>
-      <c r="H280" t="s">
-        <v>4</v>
-      </c>
-      <c r="I280" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1</v>
-      </c>
-      <c r="D281" t="n">
-        <v>280</v>
-      </c>
-      <c r="E281" t="s">
-        <v>552</v>
-      </c>
-      <c r="F281" t="s">
-        <v>553</v>
-      </c>
-      <c r="G281" t="n">
-        <v>1</v>
-      </c>
-      <c r="H281" t="s">
-        <v>4</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1</v>
-      </c>
-      <c r="D282" t="n">
-        <v>281</v>
-      </c>
-      <c r="E282" t="s">
-        <v>554</v>
-      </c>
-      <c r="F282" t="s">
-        <v>555</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1</v>
-      </c>
-      <c r="H282" t="s">
-        <v>4</v>
-      </c>
-      <c r="I282" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="s">
-        <v>0</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>282</v>
-      </c>
-      <c r="E283" t="s">
-        <v>556</v>
-      </c>
-      <c r="F283" t="s">
-        <v>557</v>
-      </c>
-      <c r="G283" t="n">
-        <v>2</v>
-      </c>
-      <c r="H283" t="s">
-        <v>4</v>
-      </c>
-      <c r="I283" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
-        <v>0</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1</v>
-      </c>
-      <c r="D284" t="n">
-        <v>283</v>
-      </c>
-      <c r="E284" t="s">
-        <v>558</v>
-      </c>
-      <c r="F284" t="s">
-        <v>559</v>
-      </c>
-      <c r="G284" t="n">
-        <v>1</v>
-      </c>
-      <c r="H284" t="s">
-        <v>4</v>
-      </c>
-      <c r="I284" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>0</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1</v>
-      </c>
-      <c r="D285" t="n">
-        <v>284</v>
-      </c>
-      <c r="E285" t="s">
-        <v>560</v>
-      </c>
-      <c r="F285" t="s">
-        <v>561</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1</v>
-      </c>
-      <c r="H285" t="s">
-        <v>4</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="s">
-        <v>0</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1</v>
-      </c>
-      <c r="D286" t="n">
-        <v>285</v>
-      </c>
-      <c r="E286" t="s">
-        <v>562</v>
-      </c>
-      <c r="F286" t="s">
-        <v>563</v>
-      </c>
-      <c r="G286" t="n">
-        <v>1</v>
-      </c>
-      <c r="H286" t="s">
-        <v>4</v>
-      </c>
-      <c r="I286" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1</v>
-      </c>
-      <c r="D287" t="n">
-        <v>286</v>
-      </c>
-      <c r="E287" t="s">
-        <v>564</v>
-      </c>
-      <c r="F287" t="s">
-        <v>565</v>
-      </c>
-      <c r="G287" t="n">
-        <v>1</v>
-      </c>
-      <c r="H287" t="s">
-        <v>4</v>
-      </c>
-      <c r="I287" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>0</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1</v>
-      </c>
-      <c r="D288" t="n">
-        <v>287</v>
-      </c>
-      <c r="E288" t="s">
-        <v>566</v>
-      </c>
-      <c r="F288" t="s">
-        <v>567</v>
-      </c>
-      <c r="G288" t="n">
-        <v>1</v>
-      </c>
-      <c r="H288" t="s">
-        <v>4</v>
-      </c>
-      <c r="I288" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>0</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1</v>
-      </c>
-      <c r="D289" t="n">
-        <v>288</v>
-      </c>
-      <c r="E289" t="s">
-        <v>568</v>
-      </c>
-      <c r="F289" t="s">
-        <v>569</v>
-      </c>
-      <c r="G289" t="n">
-        <v>1</v>
-      </c>
-      <c r="H289" t="s">
-        <v>4</v>
-      </c>
-      <c r="I289" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>0</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1</v>
-      </c>
-      <c r="D290" t="n">
-        <v>289</v>
-      </c>
-      <c r="E290" t="s">
-        <v>570</v>
-      </c>
-      <c r="F290" t="s">
-        <v>571</v>
-      </c>
-      <c r="G290" t="n">
-        <v>1</v>
-      </c>
-      <c r="H290" t="s">
-        <v>4</v>
-      </c>
-      <c r="I290" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>0</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1</v>
-      </c>
-      <c r="D291" t="n">
-        <v>290</v>
-      </c>
-      <c r="E291" t="s">
-        <v>572</v>
-      </c>
-      <c r="F291" t="s">
-        <v>573</v>
-      </c>
-      <c r="G291" t="n">
-        <v>1</v>
-      </c>
-      <c r="H291" t="s">
-        <v>4</v>
-      </c>
-      <c r="I291" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1</v>
-      </c>
-      <c r="D292" t="n">
-        <v>291</v>
-      </c>
-      <c r="E292" t="s">
-        <v>574</v>
-      </c>
-      <c r="F292" t="s">
-        <v>575</v>
-      </c>
-      <c r="G292" t="n">
-        <v>1</v>
-      </c>
-      <c r="H292" t="s">
-        <v>4</v>
-      </c>
-      <c r="I292" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>0</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1</v>
-      </c>
-      <c r="D293" t="n">
-        <v>292</v>
-      </c>
-      <c r="E293" t="s">
-        <v>576</v>
-      </c>
-      <c r="F293" t="s">
-        <v>577</v>
-      </c>
-      <c r="G293" t="n">
-        <v>1</v>
-      </c>
-      <c r="H293" t="s">
-        <v>4</v>
-      </c>
-      <c r="I293" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1</v>
-      </c>
-      <c r="D294" t="n">
-        <v>293</v>
-      </c>
-      <c r="E294" t="s">
-        <v>578</v>
-      </c>
-      <c r="F294" t="s">
-        <v>579</v>
-      </c>
-      <c r="G294" t="n">
-        <v>1</v>
-      </c>
-      <c r="H294" t="s">
-        <v>4</v>
-      </c>
-      <c r="I294" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>0</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1</v>
-      </c>
-      <c r="D295" t="n">
-        <v>294</v>
-      </c>
-      <c r="E295" t="s">
-        <v>580</v>
-      </c>
-      <c r="F295" t="s">
-        <v>581</v>
-      </c>
-      <c r="G295" t="n">
-        <v>1</v>
-      </c>
-      <c r="H295" t="s">
-        <v>4</v>
-      </c>
-      <c r="I295" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1</v>
-      </c>
-      <c r="D296" t="n">
-        <v>295</v>
-      </c>
-      <c r="E296" t="s">
-        <v>582</v>
-      </c>
-      <c r="F296" t="s">
-        <v>583</v>
-      </c>
-      <c r="G296" t="n">
-        <v>1</v>
-      </c>
-      <c r="H296" t="s">
-        <v>4</v>
-      </c>
-      <c r="I296" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1</v>
-      </c>
-      <c r="D297" t="n">
-        <v>296</v>
-      </c>
-      <c r="E297" t="s">
-        <v>584</v>
-      </c>
-      <c r="F297" t="s">
-        <v>585</v>
-      </c>
-      <c r="G297" t="n">
-        <v>1</v>
-      </c>
-      <c r="H297" t="s">
-        <v>4</v>
-      </c>
-      <c r="I297" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1</v>
-      </c>
-      <c r="D298" t="n">
-        <v>297</v>
-      </c>
-      <c r="E298" t="s">
-        <v>586</v>
-      </c>
-      <c r="F298" t="s">
-        <v>587</v>
-      </c>
-      <c r="G298" t="n">
-        <v>1</v>
-      </c>
-      <c r="H298" t="s">
-        <v>4</v>
-      </c>
-      <c r="I298" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
-        <v>0</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1</v>
-      </c>
-      <c r="D299" t="n">
-        <v>298</v>
-      </c>
-      <c r="E299" t="s">
-        <v>588</v>
-      </c>
-      <c r="F299" t="s">
-        <v>589</v>
-      </c>
-      <c r="G299" t="n">
-        <v>1</v>
-      </c>
-      <c r="H299" t="s">
-        <v>4</v>
-      </c>
-      <c r="I299" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>0</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1</v>
-      </c>
-      <c r="D300" t="n">
-        <v>299</v>
-      </c>
-      <c r="E300" t="s">
-        <v>590</v>
-      </c>
-      <c r="F300" t="s">
-        <v>591</v>
-      </c>
-      <c r="G300" t="n">
-        <v>1</v>
-      </c>
-      <c r="H300" t="s">
-        <v>4</v>
-      </c>
-      <c r="I300" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1</v>
-      </c>
-      <c r="D301" t="n">
-        <v>300</v>
-      </c>
-      <c r="E301" t="s">
-        <v>592</v>
-      </c>
-      <c r="F301" t="s">
-        <v>593</v>
-      </c>
-      <c r="G301" t="n">
-        <v>1</v>
-      </c>
-      <c r="H301" t="s">
-        <v>4</v>
-      </c>
-      <c r="I301" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="s">
-        <v>0</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1</v>
-      </c>
-      <c r="D302" t="n">
-        <v>301</v>
-      </c>
-      <c r="E302" t="s">
-        <v>594</v>
-      </c>
-      <c r="F302" t="s">
-        <v>595</v>
-      </c>
-      <c r="G302" t="n">
-        <v>1</v>
-      </c>
-      <c r="H302" t="s">
-        <v>4</v>
-      </c>
-      <c r="I302" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>0</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>302</v>
-      </c>
-      <c r="E303" t="s">
-        <v>596</v>
-      </c>
-      <c r="F303" t="s">
-        <v>597</v>
-      </c>
-      <c r="G303" t="n">
-        <v>1</v>
-      </c>
-      <c r="H303" t="s">
-        <v>4</v>
-      </c>
-      <c r="I303" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="s">
-        <v>0</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1</v>
-      </c>
-      <c r="D304" t="n">
-        <v>303</v>
-      </c>
-      <c r="E304" t="s">
-        <v>598</v>
-      </c>
-      <c r="F304" t="s">
-        <v>599</v>
-      </c>
-      <c r="G304" t="n">
-        <v>1</v>
-      </c>
-      <c r="H304" t="s">
-        <v>4</v>
-      </c>
-      <c r="I304" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" t="n">
-        <v>304</v>
-      </c>
-      <c r="E305" t="s">
-        <v>600</v>
-      </c>
-      <c r="F305" t="s">
-        <v>601</v>
-      </c>
-      <c r="G305" t="n">
-        <v>1</v>
-      </c>
-      <c r="H305" t="s">
-        <v>4</v>
-      </c>
-      <c r="I305" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="s">
-        <v>0</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1</v>
-      </c>
-      <c r="D306" t="n">
-        <v>305</v>
-      </c>
-      <c r="E306" t="s">
-        <v>602</v>
-      </c>
-      <c r="F306" t="s">
-        <v>603</v>
-      </c>
-      <c r="G306" t="n">
-        <v>1</v>
-      </c>
-      <c r="H306" t="s">
-        <v>4</v>
-      </c>
-      <c r="I306" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>306</v>
-      </c>
-      <c r="E307" t="s">
-        <v>604</v>
-      </c>
-      <c r="F307" t="s">
-        <v>605</v>
-      </c>
-      <c r="G307" t="n">
-        <v>1</v>
-      </c>
-      <c r="H307" t="s">
-        <v>4</v>
-      </c>
-      <c r="I307" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="s">
-        <v>0</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>307</v>
-      </c>
-      <c r="E308" t="s">
-        <v>606</v>
-      </c>
-      <c r="F308" t="s">
-        <v>607</v>
-      </c>
-      <c r="G308" t="n">
-        <v>1</v>
-      </c>
-      <c r="H308" t="s">
-        <v>4</v>
-      </c>
-      <c r="I308" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1</v>
-      </c>
-      <c r="D309" t="n">
-        <v>308</v>
-      </c>
-      <c r="E309" t="s">
-        <v>608</v>
-      </c>
-      <c r="F309" t="s">
-        <v>609</v>
-      </c>
-      <c r="G309" t="n">
-        <v>1</v>
-      </c>
-      <c r="H309" t="s">
-        <v>4</v>
-      </c>
-      <c r="I309" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="s">
-        <v>0</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1</v>
-      </c>
-      <c r="D310" t="n">
-        <v>309</v>
-      </c>
-      <c r="E310" t="s">
-        <v>610</v>
-      </c>
-      <c r="F310" t="s">
-        <v>611</v>
-      </c>
-      <c r="G310" t="n">
-        <v>1</v>
-      </c>
-      <c r="H310" t="s">
-        <v>4</v>
-      </c>
-      <c r="I310" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="s">
-        <v>0</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1</v>
-      </c>
-      <c r="D311" t="n">
-        <v>310</v>
-      </c>
-      <c r="E311" t="s">
-        <v>612</v>
-      </c>
-      <c r="F311" t="s">
-        <v>613</v>
-      </c>
-      <c r="G311" t="n">
-        <v>1</v>
-      </c>
-      <c r="H311" t="s">
-        <v>4</v>
-      </c>
-      <c r="I311" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="s">
-        <v>0</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1</v>
-      </c>
-      <c r="D312" t="n">
-        <v>311</v>
-      </c>
-      <c r="E312" t="s">
-        <v>614</v>
-      </c>
-      <c r="F312" t="s">
-        <v>615</v>
-      </c>
-      <c r="G312" t="n">
-        <v>1</v>
-      </c>
-      <c r="H312" t="s">
-        <v>4</v>
-      </c>
-      <c r="I312" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="s">
-        <v>0</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1</v>
-      </c>
-      <c r="D313" t="n">
-        <v>312</v>
-      </c>
-      <c r="E313" t="s">
-        <v>616</v>
-      </c>
-      <c r="F313" t="s">
-        <v>617</v>
-      </c>
-      <c r="G313" t="n">
-        <v>1</v>
-      </c>
-      <c r="H313" t="s">
-        <v>4</v>
-      </c>
-      <c r="I313" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="s">
-        <v>0</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1</v>
-      </c>
-      <c r="D314" t="n">
-        <v>313</v>
-      </c>
-      <c r="E314" t="s">
-        <v>618</v>
-      </c>
-      <c r="F314" t="s">
-        <v>619</v>
-      </c>
-      <c r="G314" t="n">
-        <v>1</v>
-      </c>
-      <c r="H314" t="s">
-        <v>4</v>
-      </c>
-      <c r="I314" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="s">
-        <v>0</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>314</v>
-      </c>
-      <c r="E315" t="s">
-        <v>620</v>
-      </c>
-      <c r="F315" t="s">
-        <v>621</v>
-      </c>
-      <c r="G315" t="n">
-        <v>1</v>
-      </c>
-      <c r="H315" t="s">
-        <v>4</v>
-      </c>
-      <c r="I315" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>315</v>
-      </c>
-      <c r="E316" t="s">
-        <v>622</v>
-      </c>
-      <c r="F316" t="s">
-        <v>623</v>
-      </c>
-      <c r="G316" t="n">
-        <v>1</v>
-      </c>
-      <c r="H316" t="s">
-        <v>4</v>
-      </c>
-      <c r="I316" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="s">
-        <v>0</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1</v>
-      </c>
-      <c r="D317" t="n">
-        <v>316</v>
-      </c>
-      <c r="E317" t="s">
-        <v>624</v>
-      </c>
-      <c r="F317" t="s">
-        <v>625</v>
-      </c>
-      <c r="G317" t="n">
-        <v>1</v>
-      </c>
-      <c r="H317" t="s">
-        <v>4</v>
-      </c>
-      <c r="I317" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="s">
-        <v>0</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1</v>
-      </c>
-      <c r="D318" t="n">
-        <v>317</v>
-      </c>
-      <c r="E318" t="s">
-        <v>626</v>
-      </c>
-      <c r="F318" t="s">
-        <v>627</v>
-      </c>
-      <c r="G318" t="n">
-        <v>1</v>
-      </c>
-      <c r="H318" t="s">
-        <v>4</v>
-      </c>
-      <c r="I318" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="s">
-        <v>0</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1</v>
-      </c>
-      <c r="D319" t="n">
-        <v>318</v>
-      </c>
-      <c r="E319" t="s">
-        <v>628</v>
-      </c>
-      <c r="F319" t="s">
-        <v>629</v>
-      </c>
-      <c r="G319" t="n">
-        <v>1</v>
-      </c>
-      <c r="H319" t="s">
-        <v>4</v>
-      </c>
-      <c r="I319" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="s">
-        <v>0</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1</v>
-      </c>
-      <c r="D320" t="n">
-        <v>319</v>
-      </c>
-      <c r="E320" t="s">
-        <v>630</v>
-      </c>
-      <c r="F320" t="s">
-        <v>631</v>
-      </c>
-      <c r="G320" t="n">
-        <v>1</v>
-      </c>
-      <c r="H320" t="s">
-        <v>4</v>
-      </c>
-      <c r="I320" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="s">
-        <v>0</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1</v>
-      </c>
-      <c r="D321" t="n">
-        <v>320</v>
-      </c>
-      <c r="E321" t="s">
-        <v>632</v>
-      </c>
-      <c r="F321" t="s">
-        <v>633</v>
-      </c>
-      <c r="G321" t="n">
-        <v>1</v>
-      </c>
-      <c r="H321" t="s">
-        <v>4</v>
-      </c>
-      <c r="I321" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1</v>
-      </c>
-      <c r="D322" t="n">
-        <v>321</v>
-      </c>
-      <c r="E322" t="s">
-        <v>634</v>
-      </c>
-      <c r="F322" t="s">
-        <v>635</v>
-      </c>
-      <c r="G322" t="n">
-        <v>1</v>
-      </c>
-      <c r="H322" t="s">
-        <v>4</v>
-      </c>
-      <c r="I322" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="s">
-        <v>0</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1</v>
-      </c>
-      <c r="D323" t="n">
-        <v>322</v>
-      </c>
-      <c r="E323" t="s">
-        <v>636</v>
-      </c>
-      <c r="F323" t="s">
-        <v>637</v>
-      </c>
-      <c r="G323" t="n">
-        <v>1</v>
-      </c>
-      <c r="H323" t="s">
-        <v>4</v>
-      </c>
-      <c r="I323" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1</v>
-      </c>
-      <c r="D324" t="n">
-        <v>323</v>
-      </c>
-      <c r="E324" t="s">
-        <v>638</v>
-      </c>
-      <c r="F324" t="s">
-        <v>639</v>
-      </c>
-      <c r="G324" t="n">
-        <v>1</v>
-      </c>
-      <c r="H324" t="s">
-        <v>4</v>
-      </c>
-      <c r="I324" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1</v>
-      </c>
-      <c r="D325" t="n">
-        <v>324</v>
-      </c>
-      <c r="E325" t="s">
-        <v>640</v>
-      </c>
-      <c r="F325" t="s">
-        <v>641</v>
-      </c>
-      <c r="G325" t="n">
-        <v>1</v>
-      </c>
-      <c r="H325" t="s">
-        <v>4</v>
-      </c>
-      <c r="I325" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1</v>
-      </c>
-      <c r="D326" t="n">
-        <v>325</v>
-      </c>
-      <c r="E326" t="s">
-        <v>642</v>
-      </c>
-      <c r="F326" t="s">
-        <v>643</v>
-      </c>
-      <c r="G326" t="n">
-        <v>1</v>
-      </c>
-      <c r="H326" t="s">
-        <v>4</v>
-      </c>
-      <c r="I326" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="s">
-        <v>0</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1</v>
-      </c>
-      <c r="D327" t="n">
-        <v>326</v>
-      </c>
-      <c r="E327" t="s">
-        <v>644</v>
-      </c>
-      <c r="F327" t="s">
-        <v>645</v>
-      </c>
-      <c r="G327" t="n">
-        <v>1</v>
-      </c>
-      <c r="H327" t="s">
-        <v>4</v>
-      </c>
-      <c r="I327" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1</v>
-      </c>
-      <c r="D328" t="n">
-        <v>327</v>
-      </c>
-      <c r="E328" t="s">
-        <v>646</v>
-      </c>
-      <c r="F328" t="s">
-        <v>647</v>
-      </c>
-      <c r="G328" t="n">
-        <v>2</v>
-      </c>
-      <c r="H328" t="s">
-        <v>4</v>
-      </c>
-      <c r="I328" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1</v>
-      </c>
-      <c r="D329" t="n">
-        <v>328</v>
-      </c>
-      <c r="E329" t="s">
-        <v>648</v>
-      </c>
-      <c r="F329" t="s">
-        <v>649</v>
-      </c>
-      <c r="G329" t="n">
-        <v>1</v>
-      </c>
-      <c r="H329" t="s">
-        <v>4</v>
-      </c>
-      <c r="I329" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1</v>
-      </c>
-      <c r="D330" t="n">
-        <v>329</v>
-      </c>
-      <c r="E330" t="s">
-        <v>650</v>
-      </c>
-      <c r="F330" t="s">
-        <v>651</v>
-      </c>
-      <c r="G330" t="n">
-        <v>1</v>
-      </c>
-      <c r="H330" t="s">
-        <v>4</v>
-      </c>
-      <c r="I330" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="s">
-        <v>0</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1</v>
-      </c>
-      <c r="D331" t="n">
-        <v>330</v>
-      </c>
-      <c r="E331" t="s">
-        <v>652</v>
-      </c>
-      <c r="F331" t="s">
-        <v>653</v>
-      </c>
-      <c r="G331" t="n">
-        <v>1</v>
-      </c>
-      <c r="H331" t="s">
-        <v>4</v>
-      </c>
-      <c r="I331" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1</v>
-      </c>
-      <c r="D332" t="n">
-        <v>331</v>
-      </c>
-      <c r="E332" t="s">
-        <v>654</v>
-      </c>
-      <c r="F332" t="s">
-        <v>655</v>
-      </c>
-      <c r="G332" t="n">
-        <v>1</v>
-      </c>
-      <c r="H332" t="s">
-        <v>4</v>
-      </c>
-      <c r="I332" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="s">
-        <v>0</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1</v>
-      </c>
-      <c r="D333" t="n">
-        <v>332</v>
-      </c>
-      <c r="E333" t="s">
-        <v>656</v>
-      </c>
-      <c r="F333" t="s">
-        <v>657</v>
-      </c>
-      <c r="G333" t="n">
-        <v>1</v>
-      </c>
-      <c r="H333" t="s">
-        <v>4</v>
-      </c>
-      <c r="I333" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="s">
-        <v>0</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1</v>
-      </c>
-      <c r="D334" t="n">
-        <v>333</v>
-      </c>
-      <c r="E334" t="s">
-        <v>658</v>
-      </c>
-      <c r="F334" t="s">
-        <v>659</v>
-      </c>
-      <c r="G334" t="n">
-        <v>1</v>
-      </c>
-      <c r="H334" t="s">
-        <v>4</v>
-      </c>
-      <c r="I334" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="s">
-        <v>0</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1</v>
-      </c>
-      <c r="D335" t="n">
-        <v>334</v>
-      </c>
-      <c r="E335" t="s">
-        <v>660</v>
-      </c>
-      <c r="F335" t="s">
-        <v>661</v>
-      </c>
-      <c r="G335" t="n">
-        <v>1</v>
-      </c>
-      <c r="H335" t="s">
-        <v>4</v>
-      </c>
-      <c r="I335" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1</v>
-      </c>
-      <c r="D336" t="n">
-        <v>335</v>
-      </c>
-      <c r="E336" t="s">
-        <v>662</v>
-      </c>
-      <c r="F336" t="s">
-        <v>663</v>
-      </c>
-      <c r="G336" t="n">
-        <v>1</v>
-      </c>
-      <c r="H336" t="s">
-        <v>4</v>
-      </c>
-      <c r="I336" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="s">
-        <v>0</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1</v>
-      </c>
-      <c r="D337" t="n">
-        <v>336</v>
-      </c>
-      <c r="E337" t="s">
-        <v>664</v>
-      </c>
-      <c r="F337" t="s">
-        <v>665</v>
-      </c>
-      <c r="G337" t="n">
-        <v>1</v>
-      </c>
-      <c r="H337" t="s">
-        <v>4</v>
-      </c>
-      <c r="I337" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1</v>
-      </c>
-      <c r="D338" t="n">
-        <v>337</v>
-      </c>
-      <c r="E338" t="s">
-        <v>666</v>
-      </c>
-      <c r="F338" t="s">
-        <v>667</v>
-      </c>
-      <c r="G338" t="n">
-        <v>1</v>
-      </c>
-      <c r="H338" t="s">
-        <v>4</v>
-      </c>
-      <c r="I338" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1</v>
-      </c>
-      <c r="D339" t="n">
-        <v>338</v>
-      </c>
-      <c r="E339" t="s">
-        <v>668</v>
-      </c>
-      <c r="F339" t="s">
-        <v>669</v>
-      </c>
-      <c r="G339" t="n">
-        <v>1</v>
-      </c>
-      <c r="H339" t="s">
-        <v>4</v>
-      </c>
-      <c r="I339" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1</v>
-      </c>
-      <c r="D340" t="n">
-        <v>339</v>
-      </c>
-      <c r="E340" t="s">
-        <v>670</v>
-      </c>
-      <c r="F340" t="s">
-        <v>671</v>
-      </c>
-      <c r="G340" t="n">
-        <v>1</v>
-      </c>
-      <c r="H340" t="s">
-        <v>4</v>
-      </c>
-      <c r="I340" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1</v>
-      </c>
-      <c r="D341" t="n">
-        <v>340</v>
-      </c>
-      <c r="E341" t="s">
-        <v>672</v>
-      </c>
-      <c r="F341" t="s">
-        <v>673</v>
-      </c>
-      <c r="G341" t="n">
-        <v>1</v>
-      </c>
-      <c r="H341" t="s">
-        <v>4</v>
-      </c>
-      <c r="I341" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1</v>
-      </c>
-      <c r="D342" t="n">
-        <v>341</v>
-      </c>
-      <c r="E342" t="s">
-        <v>674</v>
-      </c>
-      <c r="F342" t="s">
-        <v>675</v>
-      </c>
-      <c r="G342" t="n">
-        <v>1</v>
-      </c>
-      <c r="H342" t="s">
-        <v>4</v>
-      </c>
-      <c r="I342" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="s">
-        <v>0</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1</v>
-      </c>
-      <c r="D343" t="n">
-        <v>342</v>
-      </c>
-      <c r="E343" t="s">
-        <v>676</v>
-      </c>
-      <c r="F343" t="s">
-        <v>677</v>
-      </c>
-      <c r="G343" t="n">
-        <v>1</v>
-      </c>
-      <c r="H343" t="s">
-        <v>4</v>
-      </c>
-      <c r="I343" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="s">
-        <v>0</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1</v>
-      </c>
-      <c r="D344" t="n">
-        <v>343</v>
-      </c>
-      <c r="E344" t="s">
-        <v>678</v>
-      </c>
-      <c r="F344" t="s">
-        <v>679</v>
-      </c>
-      <c r="G344" t="n">
-        <v>1</v>
-      </c>
-      <c r="H344" t="s">
-        <v>4</v>
-      </c>
-      <c r="I344" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="s">
-        <v>0</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1</v>
-      </c>
-      <c r="D345" t="n">
-        <v>344</v>
-      </c>
-      <c r="E345" t="s">
-        <v>680</v>
-      </c>
-      <c r="F345" t="s">
-        <v>681</v>
-      </c>
-      <c r="G345" t="n">
-        <v>1</v>
-      </c>
-      <c r="H345" t="s">
-        <v>4</v>
-      </c>
-      <c r="I345" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1</v>
-      </c>
-      <c r="D346" t="n">
-        <v>345</v>
-      </c>
-      <c r="E346" t="s">
-        <v>682</v>
-      </c>
-      <c r="F346" t="s">
-        <v>683</v>
-      </c>
-      <c r="G346" t="n">
-        <v>1</v>
-      </c>
-      <c r="H346" t="s">
-        <v>4</v>
-      </c>
-      <c r="I346" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="s">
-        <v>0</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1</v>
-      </c>
-      <c r="D347" t="n">
-        <v>346</v>
-      </c>
-      <c r="E347" t="s">
-        <v>684</v>
-      </c>
-      <c r="F347" t="s">
-        <v>685</v>
-      </c>
-      <c r="G347" t="n">
-        <v>1</v>
-      </c>
-      <c r="H347" t="s">
-        <v>4</v>
-      </c>
-      <c r="I347" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1</v>
-      </c>
-      <c r="D348" t="n">
-        <v>347</v>
-      </c>
-      <c r="E348" t="s">
-        <v>686</v>
-      </c>
-      <c r="F348" t="s">
-        <v>687</v>
-      </c>
-      <c r="G348" t="n">
-        <v>1</v>
-      </c>
-      <c r="H348" t="s">
-        <v>4</v>
-      </c>
-      <c r="I348" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="s">
-        <v>0</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1</v>
-      </c>
-      <c r="D349" t="n">
-        <v>348</v>
-      </c>
-      <c r="E349" t="s">
-        <v>688</v>
-      </c>
-      <c r="F349" t="s">
-        <v>689</v>
-      </c>
-      <c r="G349" t="n">
-        <v>1</v>
-      </c>
-      <c r="H349" t="s">
-        <v>4</v>
-      </c>
-      <c r="I349" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="s">
-        <v>0</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1</v>
-      </c>
-      <c r="D350" t="n">
-        <v>349</v>
-      </c>
-      <c r="E350" t="s">
-        <v>690</v>
-      </c>
-      <c r="F350" t="s">
-        <v>691</v>
-      </c>
-      <c r="G350" t="n">
-        <v>1</v>
-      </c>
-      <c r="H350" t="s">
-        <v>4</v>
-      </c>
-      <c r="I350" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1</v>
-      </c>
-      <c r="D351" t="n">
-        <v>350</v>
-      </c>
-      <c r="E351" t="s">
-        <v>692</v>
-      </c>
-      <c r="F351" t="s">
-        <v>693</v>
-      </c>
-      <c r="G351" t="n">
-        <v>1</v>
-      </c>
-      <c r="H351" t="s">
-        <v>4</v>
-      </c>
-      <c r="I351" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1</v>
-      </c>
-      <c r="D352" t="n">
-        <v>351</v>
-      </c>
-      <c r="E352" t="s">
-        <v>694</v>
-      </c>
-      <c r="F352" t="s">
-        <v>695</v>
-      </c>
-      <c r="G352" t="n">
-        <v>1</v>
-      </c>
-      <c r="H352" t="s">
-        <v>4</v>
-      </c>
-      <c r="I352" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1</v>
-      </c>
-      <c r="D353" t="n">
-        <v>352</v>
-      </c>
-      <c r="E353" t="s">
-        <v>696</v>
-      </c>
-      <c r="F353" t="s">
-        <v>697</v>
-      </c>
-      <c r="G353" t="n">
-        <v>1</v>
-      </c>
-      <c r="H353" t="s">
-        <v>4</v>
-      </c>
-      <c r="I353" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="s">
-        <v>0</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1</v>
-      </c>
-      <c r="D354" t="n">
-        <v>353</v>
-      </c>
-      <c r="E354" t="s">
-        <v>698</v>
-      </c>
-      <c r="F354" t="s">
-        <v>699</v>
-      </c>
-      <c r="G354" t="n">
-        <v>1</v>
-      </c>
-      <c r="H354" t="s">
-        <v>4</v>
-      </c>
-      <c r="I354" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="s">
-        <v>0</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1</v>
-      </c>
-      <c r="D355" t="n">
-        <v>354</v>
-      </c>
-      <c r="E355" t="s">
-        <v>700</v>
-      </c>
-      <c r="F355" t="s">
-        <v>701</v>
-      </c>
-      <c r="G355" t="n">
-        <v>1</v>
-      </c>
-      <c r="H355" t="s">
-        <v>4</v>
-      </c>
-      <c r="I355" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="s">
-        <v>0</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1</v>
-      </c>
-      <c r="D356" t="n">
-        <v>355</v>
-      </c>
-      <c r="E356" t="s">
-        <v>702</v>
-      </c>
-      <c r="F356" t="s">
-        <v>703</v>
-      </c>
-      <c r="G356" t="n">
-        <v>1</v>
-      </c>
-      <c r="H356" t="s">
-        <v>4</v>
-      </c>
-      <c r="I356" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="s">
-        <v>0</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1</v>
-      </c>
-      <c r="D357" t="n">
-        <v>356</v>
-      </c>
-      <c r="E357" t="s">
-        <v>704</v>
-      </c>
-      <c r="F357" t="s">
-        <v>705</v>
-      </c>
-      <c r="G357" t="n">
-        <v>1</v>
-      </c>
-      <c r="H357" t="s">
-        <v>4</v>
-      </c>
-      <c r="I357" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
